--- a/test/data/simple.xlsx
+++ b/test/data/simple.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10627"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ltrieloff/Documents/docjure/test/dk/ative/docjure/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kay/Sources/bb-excel/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E1BC4-E35A-3B45-9F7E-9905EC819FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shows" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,15 +37,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Empty</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Votes</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>TV Show</t>
+  </si>
+  <si>
+    <t>La Femme Nikita</t>
+  </si>
+  <si>
+    <t>House M.D</t>
+  </si>
+  <si>
+    <t>Breaking Bad</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -62,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -73,6 +135,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,37 +405,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>28965</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>33373</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36525</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EFD3AE6-A417-A143-AC83-962DD2D95FBD}">
+          <x14:formula1>
+            <xm:f>Shows!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B192FD-D798-3742-9901-5FB5B4726061}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
-        <f>A1</f>
-        <v>Empty</v>
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>A2+1</f>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <f>SUM(A2:B2)</f>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/simple.xlsx
+++ b/test/data/simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kay/Sources/bb-excel/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E1BC4-E35A-3B45-9F7E-9905EC819FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F414703C-8E15-BA41-B6F0-FABB6FA74BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B192FD-D798-3742-9901-5FB5B4726061}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
